--- a/examples/output/table_path.xlsx
+++ b/examples/output/table_path.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>役割</t>
+          <t>コード</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>オンライン情報</t>
+          <t>オンライン</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>オンライン情報</t>
+          <t>オンライン</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>オンライン情報</t>
+          <t>オンライン</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -910,12 +910,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>引用情報</t>
+          <t>引用</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -934,12 +934,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>引用情報</t>
+          <t>引用</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -947,7 +947,11 @@
           <t>作成日</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
@@ -958,147 +962,159 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>引用情報</t>
+          <t>引用</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>公開日</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>作成日</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>コード</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='publication']]/gmd:CI_Date/gmd:date/gco:Date</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='creation']]/gmd:CI_Date/gmd:dateType/gmd:CI_DateTypeCode</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>引用情報</t>
+          <t>引用</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>バージョン</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>公開日</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:edition/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='publication']]/gmd:CI_Date/gmd:date/gco:Date</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>引用情報</t>
+          <t>引用</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>公開日</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>コード</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:identifier/gmd:MD_Identifier/gmd:code/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='publication']]/gmd:CI_Date/gmd:dateType/gmd:CI_DateTypeCode</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>概要</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>引用</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>バージョン</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:abstract/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:edition/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>管理者</t>
+          <t>引用</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>名前</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:individualName/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:identifier/gmd:MD_Identifier/gmd:code/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>管理者</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>組織名</t>
-        </is>
-      </c>
+          <t>概要</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:organisationName/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:abstract/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1108,21 +1124,21 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>職名</t>
+          <t>名前</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:positionName/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:individualName/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1132,21 +1148,21 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>役割</t>
+          <t>組織名</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:role/gmd:CI_RoleCode</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:organisationName/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1156,25 +1172,21 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>電話番号</t>
-        </is>
-      </c>
+          <t>職名</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:phone/gmd:CI_Telephone/gmd:voice/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:positionName/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1184,29 +1196,21 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>住所</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>番地</t>
-        </is>
-      </c>
+          <t>役割</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:deliveryPoint/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:role/gmd:CI_RoleCode</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1221,24 +1225,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>住所</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>市町村</t>
-        </is>
-      </c>
+          <t>電話番号</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:city/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:phone/gmd:CI_Telephone/gmd:voice/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1258,19 +1258,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>都道府県</t>
+          <t>番地</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:administrativeArea/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:deliveryPoint/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>郵便番号</t>
+          <t>市町村</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:postalCode/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:city/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1322,19 +1322,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>国</t>
+          <t>都道府県</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:country/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:administrativeArea/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1354,19 +1354,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>メールアドレス</t>
+          <t>郵便番号</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:electronicMailAddress/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:postalCode/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1381,24 +1381,24 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>オンライン情報</t>
+          <t>住所</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>国</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource/gmd:CI_OnlineResource/gmd:linkage/gmd:URL</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:country/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1413,24 +1413,24 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>オンライン情報</t>
+          <t>住所</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>名前</t>
+          <t>メールアドレス</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource/gmd:CI_OnlineResource/gmd:name/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:electronicMailAddress/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1445,76 +1445,88 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>オンライン情報</t>
+          <t>オンライン</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>説明</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource/gmd:CI_OnlineResource/gmd:description/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource/gmd:CI_OnlineResource/gmd:linkage/gmd:URL</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>分野</t>
+          <t>管理者</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>値</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>オンライン</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource/gmd:CI_OnlineResource/gmd:name/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>分野</t>
+          <t>管理者</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>シソーラス</t>
+          <t>連絡先</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>タイトル</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>オンライン</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>説明</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource/gmd:CI_OnlineResource/gmd:description/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1524,54 +1536,50 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>シソーラス</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>日付</t>
-        </is>
-      </c>
+          <t>値</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>場所</t>
+          <t>分野</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>値</t>
+          <t>コード</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:type/gmd:MD_KeywordTypeCode</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>場所</t>
+          <t>分野</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1587,19 +1595,19 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>場所</t>
+          <t>分野</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1615,19 +1623,19 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>プロジェクト</t>
+          <t>場所</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1639,47 +1647,43 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>プロジェクト</t>
+          <t>場所</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>シソーラス</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>タイトル</t>
-        </is>
-      </c>
+          <t>コード</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:type/gmd:MD_KeywordTypeCode</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>プロジェクト</t>
+          <t>場所</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1689,49 +1693,53 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>日付</t>
+          <t>タイトル</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>キーワード</t>
+          <t>場所</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>値</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>シソーラス</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[not(.//gmd:MD_KeywordTypeCode[@codeListValue='discipline' or @codeListValue='place' or @codeListValue='project'])]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>利用方法</t>
+          <t>プロジェクト</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1743,218 +1751,206 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:resourceConstraints/gmd:MD_Constraints/gmd:useLimitation/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>言語</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>プロジェクト</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>コード</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:language/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:type/gmd:MD_KeywordTypeCode</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>文字コード</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+          <t>プロジェクト</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>シソーラス</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>タイトル</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:characterSet/gmd:MD_CharacterSetCode</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>カテゴリー</t>
+          <t>プロジェクト</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>値</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>シソーラス</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:topicCategory/gmd:MD_TopicCategoryCode</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>取得範囲</t>
+          <t>キーワード</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>場所</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>西側境界</t>
-        </is>
-      </c>
+          <t>値</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:westBoundLongitude/gco:Decimal</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[not(.//gmd:MD_KeywordTypeCode[@codeListValue='discipline' or @codeListValue='place' or @codeListValue='project'])]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>取得範囲</t>
+          <t>利用方法</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>場所</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>東側境界</t>
-        </is>
-      </c>
+          <t>値</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:eastBoundLongitude/gco:Decimal</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:resourceConstraints/gmd:MD_Constraints/gmd:useLimitation/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>取得範囲</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>場所</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>南側境界</t>
-        </is>
-      </c>
+          <t>言語</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:southBoundLatitude/gco:Decimal</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:language/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>取得範囲</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>場所</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>北側境界</t>
-        </is>
-      </c>
+          <t>文字コード</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:northBoundLatitude/gco:Decimal</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:characterSet/gmd:MD_CharacterSetCode</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>取得範囲</t>
+          <t>カテゴリー</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>日時</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>開始日時</t>
-        </is>
-      </c>
+          <t>値</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:temporalElement/gmd:EX_TemporalExtent/gmd:extent/gml:TimePeriod/gml:beginPosition</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:topicCategory/gmd:MD_TopicCategoryCode</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1964,146 +1960,170 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>日時</t>
+          <t>場所</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>終了日時</t>
+          <t>西側境界</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:temporalElement/gmd:EX_TemporalExtent/gmd:extent/gml:TimePeriod/gml:endPosition</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:westBoundLongitude/gco:Decimal</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>識別情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>参考情報</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+          <t>取得範囲</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>東側境界</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:supplementalInformation/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:eastBoundLongitude/gco:Decimal</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>配布情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>フォーマット</t>
+          <t>取得範囲</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>名前</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>南側境界</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:distributionFormat/gmd:MD_Format/gmd:name/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:southBoundLatitude/gco:Decimal</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>配布情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>オンライン情報</t>
+          <t>取得範囲</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>北側境界</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:transferOptions/gmd:MD_DigitalTransferOptions/gmd:onLine/gmd:CI_OnlineResource/gmd:linkage/gmd:URL</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:northBoundLatitude/gco:Decimal</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>配布情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>オンライン情報</t>
+          <t>取得範囲</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>名前</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>日時</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>開始日時</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:transferOptions/gmd:MD_DigitalTransferOptions/gmd:onLine/gmd:CI_OnlineResource/gmd:name/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:temporalElement/gmd:EX_TemporalExtent/gmd:extent/gml:TimePeriod/gml:beginPosition</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>配布情報</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>オンライン情報</t>
+          <t>取得範囲</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>説明</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>日時</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>終了日時</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:transferOptions/gmd:MD_DigitalTransferOptions/gmd:onLine/gmd:CI_OnlineResource/gmd:description/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:temporalElement/gmd:EX_TemporalExtent/gmd:extent/gml:TimePeriod/gml:endPosition</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>データ処理状態</t>
+          <t>データ情報</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>種別</t>
+          <t>参考情報</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2111,25 +2131,141 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:dataQualityInfo/gmd:DQ_DataQuality/gmd:scope/gmd:DQ_Scope/gmd:level/gmd:MD_ScopeCode</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:supplementalInformation/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>データ処理状態</t>
+          <t>配布情報</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>処理状態</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>フォーマット</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
+        <is>
+          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:distributionFormat/gmd:MD_Format/gmd:name/gco:CharacterString</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>配布情報</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>オンライン</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:transferOptions/gmd:MD_DigitalTransferOptions/gmd:onLine/gmd:CI_OnlineResource/gmd:linkage/gmd:URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>配布情報</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>オンライン</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:transferOptions/gmd:MD_DigitalTransferOptions/gmd:onLine/gmd:CI_OnlineResource/gmd:name/gco:CharacterString</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>配布情報</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>オンライン</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>説明</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:transferOptions/gmd:MD_DigitalTransferOptions/gmd:onLine/gmd:CI_OnlineResource/gmd:description/gco:CharacterString</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>データ処理状態</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>コード</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>/gmd:MD_Metadata/gmd:dataQualityInfo/gmd:DQ_DataQuality/gmd:scope/gmd:DQ_Scope/gmd:level/gmd:MD_ScopeCode</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>データ処理状態</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>処理状態</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
         <is>
           <t>/gmd:MD_Metadata/gmd:dataQualityInfo/gmd:DQ_DataQuality/gmd:lineage/gmd:LI_Lineage/gmd:processStep/gmd:LI_ProcessStep/gmd:description/gco:CharacterString</t>
         </is>

--- a/examples/output/table_path.xlsx
+++ b/examples/output/table_path.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>コード</t>
+          <t>役割</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -947,11 +947,7 @@
           <t>作成日</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>日付</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
@@ -972,18 +968,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>作成日</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>コード</t>
-        </is>
-      </c>
+          <t>公開日</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='creation']]/gmd:CI_Date/gmd:dateType/gmd:CI_DateTypeCode</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='publication']]/gmd:CI_Date/gmd:date/gco:Date</t>
         </is>
       </c>
     </row>
@@ -1000,18 +992,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>公開日</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>日付</t>
-        </is>
-      </c>
+          <t>バージョン</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='publication']]/gmd:CI_Date/gmd:date/gco:Date</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:edition/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1028,18 +1016,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>公開日</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>コード</t>
-        </is>
-      </c>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='publication']]/gmd:CI_Date/gmd:dateType/gmd:CI_DateTypeCode</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:identifier/gmd:MD_Identifier/gmd:code/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1051,19 +1035,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>引用</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>バージョン</t>
-        </is>
-      </c>
+          <t>概要</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:edition/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:abstract/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1075,19 +1055,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>引用</t>
+          <t>管理者</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>名前</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:identifier/gmd:MD_Identifier/gmd:code/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:individualName/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1099,15 +1079,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>概要</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>管理者</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>組織名</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:abstract/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:organisationName/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1108,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>名前</t>
+          <t>職名</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:individualName/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:positionName/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1148,14 +1132,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>組織名</t>
+          <t>役割</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:organisationName/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:role/gmd:CI_RoleCode</t>
         </is>
       </c>
     </row>
@@ -1172,14 +1156,18 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>職名</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>電話番号</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:positionName/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:phone/gmd:CI_Telephone/gmd:voice/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1196,14 +1184,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>役割</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>番地</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:role/gmd:CI_RoleCode</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:deliveryPoint/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1225,13 +1221,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>電話番号</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>市町村</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:phone/gmd:CI_Telephone/gmd:voice/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:city/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1258,12 +1258,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>番地</t>
+          <t>都道府県</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:deliveryPoint/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:administrativeArea/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>市町村</t>
+          <t>郵便番号</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:city/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:postalCode/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1322,12 +1322,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>都道府県</t>
+          <t>国</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:administrativeArea/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:country/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1354,12 +1354,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>郵便番号</t>
+          <t>メールアドレス</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:postalCode/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:electronicMailAddress/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>住所</t>
+          <t>オンライン</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>国</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:country/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource/gmd:CI_OnlineResource/gmd:linkage/gmd:URL</t>
         </is>
       </c>
     </row>
@@ -1413,17 +1413,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>住所</t>
+          <t>オンライン</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>メールアドレス</t>
+          <t>名前</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address/gmd:CI_Address/gmd:electronicMailAddress/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource/gmd:CI_OnlineResource/gmd:name/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>説明</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource/gmd:CI_OnlineResource/gmd:linkage/gmd:URL</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource/gmd:CI_OnlineResource/gmd:description/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1467,27 +1467,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>管理者</t>
+          <t>分野</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>オンライン</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>名前</t>
-        </is>
-      </c>
+          <t>値</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource/gmd:CI_OnlineResource/gmd:name/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1499,27 +1491,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>管理者</t>
+          <t>分野</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>連絡先</t>
+          <t>シソーラス</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>オンライン</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>説明</t>
-        </is>
-      </c>
+          <t>タイトル</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource/gmd:CI_OnlineResource/gmd:description/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1536,14 +1524,18 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>値</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>シソーラス</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
         </is>
       </c>
     </row>
@@ -1555,19 +1547,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>分野</t>
+          <t>場所</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>コード</t>
+          <t>値</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:type/gmd:MD_KeywordTypeCode</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1571,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>分野</t>
+          <t>場所</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1595,7 +1587,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1599,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>分野</t>
+          <t>場所</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1623,7 +1615,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1627,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>場所</t>
+          <t>プロジェクト</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1647,7 +1639,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1659,19 +1651,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>場所</t>
+          <t>プロジェクト</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>コード</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>シソーラス</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>タイトル</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:type/gmd:MD_KeywordTypeCode</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1679,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>場所</t>
+          <t>プロジェクト</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1693,13 +1689,13 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>タイトル</t>
+          <t>日付</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
         </is>
       </c>
     </row>
@@ -1711,23 +1707,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>場所</t>
+          <t>キーワード</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>シソーラス</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>日付</t>
-        </is>
-      </c>
+          <t>値</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[not(.//gmd:MD_KeywordTypeCode[@codeListValue='discipline' or @codeListValue='place' or @codeListValue='project'])]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1731,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>プロジェクト</t>
+          <t>利用方法</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1751,7 +1743,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:resourceConstraints/gmd:MD_Constraints/gmd:useLimitation/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1763,19 +1755,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>プロジェクト</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>コード</t>
-        </is>
-      </c>
+          <t>言語</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:type/gmd:MD_KeywordTypeCode</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:language/gco:CharacterString</t>
         </is>
       </c>
     </row>
@@ -1787,23 +1775,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>プロジェクト</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>シソーラス</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>タイトル</t>
-        </is>
-      </c>
+          <t>文字コード</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:characterSet/gmd:MD_CharacterSetCode</t>
         </is>
       </c>
     </row>
@@ -1815,23 +1795,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>プロジェクト</t>
+          <t>カテゴリー</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>シソーラス</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>日付</t>
-        </is>
-      </c>
+          <t>値</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]/gmd:MD_Keywords/gmd:thesaurusName/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:topicCategory/gmd:MD_TopicCategoryCode</t>
         </is>
       </c>
     </row>
@@ -1843,19 +1819,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>キーワード</t>
+          <t>取得範囲</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>値</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>西側境界</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[not(.//gmd:MD_KeywordTypeCode[@codeListValue='discipline' or @codeListValue='place' or @codeListValue='project'])]/gmd:MD_Keywords/gmd:keyword/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:westBoundLongitude/gco:Decimal</t>
         </is>
       </c>
     </row>
@@ -1867,19 +1847,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>利用方法</t>
+          <t>取得範囲</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>値</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>東側境界</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:resourceConstraints/gmd:MD_Constraints/gmd:useLimitation/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:eastBoundLongitude/gco:Decimal</t>
         </is>
       </c>
     </row>
@@ -1891,15 +1875,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>言語</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+          <t>取得範囲</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>南側境界</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:language/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:southBoundLatitude/gco:Decimal</t>
         </is>
       </c>
     </row>
@@ -1911,15 +1903,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>文字コード</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+          <t>取得範囲</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>北側境界</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:characterSet/gmd:MD_CharacterSetCode</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:northBoundLatitude/gco:Decimal</t>
         </is>
       </c>
     </row>
@@ -1931,19 +1931,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>カテゴリー</t>
+          <t>取得範囲</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>値</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>日時</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>開始日時</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:topicCategory/gmd:MD_TopicCategoryCode</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:temporalElement/gmd:EX_TemporalExtent/gmd:extent/gml:TimePeriod/gml:beginPosition</t>
         </is>
       </c>
     </row>
@@ -1960,18 +1964,18 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>場所</t>
+          <t>日時</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>西側境界</t>
+          <t>終了日時</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:westBoundLongitude/gco:Decimal</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:temporalElement/gmd:EX_TemporalExtent/gmd:extent/gml:TimePeriod/gml:endPosition</t>
         </is>
       </c>
     </row>
@@ -1983,147 +1987,123 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>取得範囲</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>場所</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>東側境界</t>
-        </is>
-      </c>
+          <t>参考情報</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:eastBoundLongitude/gco:Decimal</t>
+          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:supplementalInformation/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>データ情報</t>
+          <t>配布情報</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>取得範囲</t>
+          <t>フォーマット</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>場所</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>南側境界</t>
-        </is>
-      </c>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:southBoundLatitude/gco:Decimal</t>
+          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:distributionFormat/gmd:MD_Format/gmd:name/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>データ情報</t>
+          <t>配布情報</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>取得範囲</t>
+          <t>オンライン</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>場所</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>北側境界</t>
-        </is>
-      </c>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox/gmd:northBoundLatitude/gco:Decimal</t>
+          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:transferOptions/gmd:MD_DigitalTransferOptions/gmd:onLine/gmd:CI_OnlineResource/gmd:linkage/gmd:URL</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>データ情報</t>
+          <t>配布情報</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>取得範囲</t>
+          <t>オンライン</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>日時</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>開始日時</t>
-        </is>
-      </c>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:temporalElement/gmd:EX_TemporalExtent/gmd:extent/gml:TimePeriod/gml:beginPosition</t>
+          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:transferOptions/gmd:MD_DigitalTransferOptions/gmd:onLine/gmd:CI_OnlineResource/gmd:name/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>データ情報</t>
+          <t>配布情報</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>取得範囲</t>
+          <t>オンライン</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>日時</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>終了日時</t>
-        </is>
-      </c>
+          <t>説明</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:temporalElement/gmd:EX_TemporalExtent/gmd:extent/gml:TimePeriod/gml:endPosition</t>
+          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:transferOptions/gmd:MD_DigitalTransferOptions/gmd:onLine/gmd:CI_OnlineResource/gmd:description/gco:CharacterString</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>データ情報</t>
+          <t>データ処理状態</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>参考情報</t>
+          <t>種別</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2131,141 +2111,25 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:supplementalInformation/gco:CharacterString</t>
+          <t>/gmd:MD_Metadata/gmd:dataQualityInfo/gmd:DQ_DataQuality/gmd:scope/gmd:DQ_Scope/gmd:level/gmd:MD_ScopeCode</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>配布情報</t>
+          <t>データ処理状態</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>フォーマット</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>名前</t>
-        </is>
-      </c>
+          <t>処理状態</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
-        <is>
-          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:distributionFormat/gmd:MD_Format/gmd:name/gco:CharacterString</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>配布情報</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>オンライン</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:transferOptions/gmd:MD_DigitalTransferOptions/gmd:onLine/gmd:CI_OnlineResource/gmd:linkage/gmd:URL</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>配布情報</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>オンライン</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>名前</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:transferOptions/gmd:MD_DigitalTransferOptions/gmd:onLine/gmd:CI_OnlineResource/gmd:name/gco:CharacterString</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>配布情報</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>オンライン</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>説明</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>/gmd:MD_Metadata/gmd:distributionInfo/gmd:MD_Distribution/gmd:transferOptions/gmd:MD_DigitalTransferOptions/gmd:onLine/gmd:CI_OnlineResource/gmd:description/gco:CharacterString</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>データ処理状態</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>コード</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>/gmd:MD_Metadata/gmd:dataQualityInfo/gmd:DQ_DataQuality/gmd:scope/gmd:DQ_Scope/gmd:level/gmd:MD_ScopeCode</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>データ処理状態</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>処理状態</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
         <is>
           <t>/gmd:MD_Metadata/gmd:dataQualityInfo/gmd:DQ_DataQuality/gmd:lineage/gmd:LI_Lineage/gmd:processStep/gmd:LI_ProcessStep/gmd:description/gco:CharacterString</t>
         </is>
